--- a/survey-results-schema.xlsx
+++ b/survey-results-schema.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://porsche-my.sharepoint.com/personal/oliver_balb_porsche_de/Documents/Documents/_Orga/96 - Training/DataScience/04 Data Scientist/3C2S/DS3BP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{5A9206A6-C9EF-478F-B2F2-18FA90736B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10FB9A62-D07E-4B22-87E9-E0CE15AA1B98}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{5A9206A6-C9EF-478F-B2F2-18FA90736B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B23F7257-46B3-48EC-8A9B-85A56EDB59EF}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey-results-schema (2)" sheetId="2" r:id="rId1"/>
     <sheet name="survey-results-schema" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'survey-results-schema (2)'!$A$1:$D$157</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="492">
   <si>
     <t>Column,Question</t>
   </si>
@@ -1438,13 +1442,85 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Relevance</t>
+  </si>
+  <si>
+    <t>'YearsProgram',</t>
+  </si>
+  <si>
+    <t>'YearsCodedJob',</t>
+  </si>
+  <si>
+    <t>'DeveloperType',</t>
+  </si>
+  <si>
+    <t>'WebDeveloperType',</t>
+  </si>
+  <si>
+    <t>'MobileDeveloperType',</t>
+  </si>
+  <si>
+    <t>'NonDeveloperType',</t>
+  </si>
+  <si>
+    <t>'ProblemSolving',</t>
+  </si>
+  <si>
+    <t>'BuildingThings',</t>
+  </si>
+  <si>
+    <t>'LearningNewTech',</t>
+  </si>
+  <si>
+    <t>'BoringDetails',</t>
+  </si>
+  <si>
+    <t>'FriendsDevelopers',</t>
+  </si>
+  <si>
+    <t>'RightWrongWay',</t>
+  </si>
+  <si>
+    <t>'UnderstandComputers',</t>
+  </si>
+  <si>
+    <t>'SeriousWork',</t>
+  </si>
+  <si>
+    <t>'InvestTimeTools',</t>
+  </si>
+  <si>
+    <t>'ChallengeMyself',</t>
+  </si>
+  <si>
+    <t>'CompetePeers',</t>
+  </si>
+  <si>
+    <t>'ChangeWorld',</t>
+  </si>
+  <si>
+    <t>'HaveWorkedLanguage',</t>
+  </si>
+  <si>
+    <t>'WantWorkLanguage',</t>
+  </si>
+  <si>
+    <t>'HaveWorkedFramework',</t>
+  </si>
+  <si>
+    <t>'WantWorkFramework',</t>
+  </si>
+  <si>
+    <t>'HighestEducationParents',</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1559,6 +1635,12 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Porsche Next TT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Porsche Next TT"/>
       <family val="2"/>
     </font>
@@ -1904,8 +1986,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2261,26 +2349,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="51.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>159</v>
       </c>
@@ -2288,7 +2383,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>161</v>
       </c>
@@ -2296,7 +2391,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>163</v>
       </c>
@@ -2304,7 +2399,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>165</v>
       </c>
@@ -2312,7 +2407,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>167</v>
       </c>
@@ -2320,7 +2415,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>169</v>
       </c>
@@ -2328,7 +2423,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>171</v>
       </c>
@@ -2336,7 +2431,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>173</v>
       </c>
@@ -2344,7 +2439,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>175</v>
       </c>
@@ -2352,7 +2447,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>177</v>
       </c>
@@ -2360,7 +2455,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>179</v>
       </c>
@@ -2368,29 +2463,37 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="D13" s="1" t="str">
+        <f>"'" &amp; B13 &amp; "',"</f>
+        <v>'YearsProgram',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D14" s="1" t="str">
+        <f>"'" &amp; B14 &amp; "',"</f>
+        <v>'YearsCodedJob',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>185</v>
       </c>
@@ -2398,51 +2501,67 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
+      <c r="D16" s="1" t="str">
+        <f t="shared" ref="D16:D19" si="0">"'" &amp; B16 &amp; "',"</f>
+        <v>'DeveloperType',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'WebDeveloperType',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'MobileDeveloperType',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'NonDeveloperType',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>195</v>
       </c>
@@ -2450,7 +2569,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>197</v>
       </c>
@@ -2458,7 +2577,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>199</v>
       </c>
@@ -2466,7 +2585,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>201</v>
       </c>
@@ -2474,7 +2593,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>203</v>
       </c>
@@ -2482,7 +2601,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>205</v>
       </c>
@@ -2490,7 +2609,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>207</v>
       </c>
@@ -2498,7 +2617,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>209</v>
       </c>
@@ -2506,7 +2625,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>211</v>
       </c>
@@ -2514,7 +2633,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>213</v>
       </c>
@@ -2522,7 +2641,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>215</v>
       </c>
@@ -2530,48 +2649,67 @@
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+      <c r="D31" s="1" t="str">
+        <f t="shared" ref="D31:D34" si="1">"'" &amp; B31 &amp; "',"</f>
+        <v>'ProblemSolving',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>'BuildingThings',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B34" t="s">
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>'LearningNewTech',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>'BoringDetails',</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>225</v>
       </c>
@@ -2579,7 +2717,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>227</v>
       </c>
@@ -2587,7 +2725,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>229</v>
       </c>
@@ -2595,56 +2733,82 @@
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B38" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B39" t="s">
+      <c r="D38" s="1" t="str">
+        <f t="shared" ref="D38:D42" si="2">"'" &amp; B38 &amp; "',"</f>
+        <v>'FriendsDevelopers',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'RightWrongWay',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'UnderstandComputers',</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'SeriousWork',</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D42" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'InvestTimeTools',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>241</v>
       </c>
@@ -2652,7 +2816,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>243</v>
       </c>
@@ -2660,37 +2824,52 @@
         <v>244</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+      <c r="D45" s="1" t="str">
+        <f t="shared" ref="D45:D47" si="3">"'" &amp; B45 &amp; "',"</f>
+        <v>'ChallengeMyself',</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B47" t="s">
+      <c r="D46" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'CompetePeers',</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D47" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'ChangeWorld',</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>251</v>
       </c>
@@ -2698,7 +2877,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>253</v>
       </c>
@@ -2706,7 +2885,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>255</v>
       </c>
@@ -2714,7 +2893,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
         <v>257</v>
       </c>
@@ -2722,7 +2901,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>259</v>
       </c>
@@ -2730,7 +2909,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>261</v>
       </c>
@@ -2738,7 +2917,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>263</v>
       </c>
@@ -2746,7 +2925,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>265</v>
       </c>
@@ -2754,7 +2933,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>267</v>
       </c>
@@ -2762,7 +2941,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>269</v>
       </c>
@@ -2770,7 +2949,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
         <v>271</v>
       </c>
@@ -2778,7 +2957,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>273</v>
       </c>
@@ -2786,7 +2965,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>275</v>
       </c>
@@ -2794,7 +2973,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>277</v>
       </c>
@@ -2802,7 +2981,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
         <v>279</v>
       </c>
@@ -2810,7 +2989,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
         <v>281</v>
       </c>
@@ -2818,7 +2997,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
         <v>283</v>
       </c>
@@ -2826,7 +3005,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
         <v>285</v>
       </c>
@@ -2834,7 +3013,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
         <v>287</v>
       </c>
@@ -2842,7 +3021,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
         <v>289</v>
       </c>
@@ -2850,7 +3029,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
         <v>291</v>
       </c>
@@ -2858,7 +3037,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
         <v>293</v>
       </c>
@@ -2866,7 +3045,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
         <v>295</v>
       </c>
@@ -2874,7 +3053,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
         <v>297</v>
       </c>
@@ -2882,7 +3061,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
         <v>299</v>
       </c>
@@ -2890,7 +3069,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
         <v>301</v>
       </c>
@@ -2898,7 +3077,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
         <v>303</v>
       </c>
@@ -2906,7 +3085,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
         <v>305</v>
       </c>
@@ -2914,7 +3093,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
         <v>307</v>
       </c>
@@ -2922,7 +3101,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
         <v>309</v>
       </c>
@@ -2930,7 +3109,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
         <v>311</v>
       </c>
@@ -2938,7 +3117,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
         <v>313</v>
       </c>
@@ -2946,7 +3125,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
         <v>315</v>
       </c>
@@ -2954,7 +3133,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
         <v>317</v>
       </c>
@@ -2962,7 +3141,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
         <v>319</v>
       </c>
@@ -2970,7 +3149,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
         <v>321</v>
       </c>
@@ -2978,7 +3157,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B84" t="s">
         <v>323</v>
       </c>
@@ -2986,7 +3165,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B85" t="s">
         <v>325</v>
       </c>
@@ -2994,7 +3173,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B86" t="s">
         <v>327</v>
       </c>
@@ -3002,7 +3181,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
         <v>329</v>
       </c>
@@ -3010,7 +3189,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
         <v>331</v>
       </c>
@@ -3018,7 +3197,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B89" t="s">
         <v>333</v>
       </c>
@@ -3029,7 +3208,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B90" t="s">
         <v>336</v>
       </c>
@@ -3040,7 +3219,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B91" t="s">
         <v>338</v>
       </c>
@@ -3049,50 +3228,66 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>341</v>
       </c>
+      <c r="D92" s="1" t="str">
+        <f t="shared" ref="D92:D95" si="4">"'" &amp; B92 &amp; "',"</f>
+        <v>'HaveWorkedLanguage',</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>341</v>
       </c>
+      <c r="D93" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>'WantWorkLanguage',</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="2" t="s">
         <v>344</v>
       </c>
+      <c r="D94" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>'HaveWorkedFramework',</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D95" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>'WantWorkFramework',</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B96" t="s">
         <v>346</v>
       </c>
@@ -3100,7 +3295,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B97" t="s">
         <v>348</v>
       </c>
@@ -3108,7 +3303,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B98" t="s">
         <v>349</v>
       </c>
@@ -3116,7 +3311,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B99" t="s">
         <v>351</v>
       </c>
@@ -3124,7 +3319,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B100" t="s">
         <v>352</v>
       </c>
@@ -3132,7 +3327,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B101" t="s">
         <v>354</v>
       </c>
@@ -3140,7 +3335,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B102" t="s">
         <v>356</v>
       </c>
@@ -3148,7 +3343,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B103" t="s">
         <v>358</v>
       </c>
@@ -3156,7 +3351,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B104" t="s">
         <v>360</v>
       </c>
@@ -3164,7 +3359,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B105" t="s">
         <v>362</v>
       </c>
@@ -3172,7 +3367,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B106" t="s">
         <v>364</v>
       </c>
@@ -3180,7 +3375,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B107" t="s">
         <v>366</v>
       </c>
@@ -3188,7 +3383,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B108" t="s">
         <v>368</v>
       </c>
@@ -3196,7 +3391,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B109" t="s">
         <v>370</v>
       </c>
@@ -3204,7 +3399,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B110" t="s">
         <v>372</v>
       </c>
@@ -3212,7 +3407,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B111" t="s">
         <v>374</v>
       </c>
@@ -3220,7 +3415,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B112" t="s">
         <v>376</v>
       </c>
@@ -3228,7 +3423,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B113" t="s">
         <v>378</v>
       </c>
@@ -3236,7 +3431,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B114" t="s">
         <v>380</v>
       </c>
@@ -3244,7 +3439,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B115" t="s">
         <v>382</v>
       </c>
@@ -3252,7 +3447,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B116" t="s">
         <v>384</v>
       </c>
@@ -3260,7 +3455,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B117" t="s">
         <v>386</v>
       </c>
@@ -3268,7 +3463,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B118" t="s">
         <v>388</v>
       </c>
@@ -3276,7 +3471,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B119" t="s">
         <v>390</v>
       </c>
@@ -3284,7 +3479,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B120" t="s">
         <v>392</v>
       </c>
@@ -3292,7 +3487,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B121" t="s">
         <v>394</v>
       </c>
@@ -3300,7 +3495,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B122" t="s">
         <v>396</v>
       </c>
@@ -3308,7 +3503,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B123" t="s">
         <v>398</v>
       </c>
@@ -3316,7 +3511,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B124" t="s">
         <v>400</v>
       </c>
@@ -3324,7 +3519,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B125" t="s">
         <v>402</v>
       </c>
@@ -3332,7 +3527,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B126" t="s">
         <v>404</v>
       </c>
@@ -3340,7 +3535,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B127" t="s">
         <v>406</v>
       </c>
@@ -3348,7 +3543,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B128" t="s">
         <v>408</v>
       </c>
@@ -3356,7 +3551,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B129" t="s">
         <v>410</v>
       </c>
@@ -3364,7 +3559,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B130" t="s">
         <v>412</v>
       </c>
@@ -3372,7 +3567,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B131" t="s">
         <v>413</v>
       </c>
@@ -3380,7 +3575,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B132" t="s">
         <v>415</v>
       </c>
@@ -3388,7 +3583,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B133" t="s">
         <v>417</v>
       </c>
@@ -3396,7 +3591,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B134" t="s">
         <v>419</v>
       </c>
@@ -3404,7 +3599,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B135" t="s">
         <v>421</v>
       </c>
@@ -3412,7 +3607,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B136" t="s">
         <v>423</v>
       </c>
@@ -3420,7 +3615,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B137" t="s">
         <v>425</v>
       </c>
@@ -3428,7 +3623,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B138" t="s">
         <v>427</v>
       </c>
@@ -3436,7 +3631,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B139" t="s">
         <v>429</v>
       </c>
@@ -3444,7 +3639,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B140" t="s">
         <v>431</v>
       </c>
@@ -3452,7 +3647,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B141" t="s">
         <v>433</v>
       </c>
@@ -3460,7 +3655,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B142" t="s">
         <v>435</v>
       </c>
@@ -3468,7 +3663,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B143" t="s">
         <v>437</v>
       </c>
@@ -3476,7 +3671,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B144" t="s">
         <v>439</v>
       </c>
@@ -3484,7 +3679,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B145" t="s">
         <v>441</v>
       </c>
@@ -3492,7 +3687,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B146" t="s">
         <v>443</v>
       </c>
@@ -3500,7 +3695,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B147" t="s">
         <v>445</v>
       </c>
@@ -3508,7 +3703,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B148" t="s">
         <v>447</v>
       </c>
@@ -3516,7 +3711,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B149" t="s">
         <v>449</v>
       </c>
@@ -3524,15 +3719,22 @@
         <v>450</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B150" t="s">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A150" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="D150" s="1" t="str">
+        <f t="shared" ref="D150" si="5">"'" &amp; B150 &amp; "',"</f>
+        <v>'HighestEducationParents',</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B151" t="s">
         <v>453</v>
       </c>
@@ -3540,7 +3742,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B152" t="s">
         <v>455</v>
       </c>
@@ -3548,7 +3750,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B153" t="s">
         <v>457</v>
       </c>
@@ -3556,7 +3758,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B154" t="s">
         <v>459</v>
       </c>
@@ -3564,7 +3766,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B155" t="s">
         <v>461</v>
       </c>
@@ -3572,7 +3774,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B156" t="s">
         <v>463</v>
       </c>
@@ -3580,7 +3782,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B157" t="s">
         <v>465</v>
       </c>
@@ -3589,6 +3791,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D157" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4391,4 +4600,90 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990AAE54-9A3F-44DA-AFDB-AF3796E83DDE}">
+  <dimension ref="A1:W1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:W1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I1" t="s">
+        <v>477</v>
+      </c>
+      <c r="J1" t="s">
+        <v>478</v>
+      </c>
+      <c r="K1" t="s">
+        <v>479</v>
+      </c>
+      <c r="L1" t="s">
+        <v>480</v>
+      </c>
+      <c r="M1" t="s">
+        <v>481</v>
+      </c>
+      <c r="N1" t="s">
+        <v>482</v>
+      </c>
+      <c r="O1" t="s">
+        <v>483</v>
+      </c>
+      <c r="P1" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>485</v>
+      </c>
+      <c r="R1" t="s">
+        <v>486</v>
+      </c>
+      <c r="S1" t="s">
+        <v>487</v>
+      </c>
+      <c r="T1" t="s">
+        <v>488</v>
+      </c>
+      <c r="U1" t="s">
+        <v>489</v>
+      </c>
+      <c r="V1" t="s">
+        <v>490</v>
+      </c>
+      <c r="W1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/survey-results-schema.xlsx
+++ b/survey-results-schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://porsche-my.sharepoint.com/personal/oliver_balb_porsche_de/Documents/Documents/_Orga/96 - Training/DataScience/04 Data Scientist/3C2S/DS3BP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{5A9206A6-C9EF-478F-B2F2-18FA90736B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B23F7257-46B3-48EC-8A9B-85A56EDB59EF}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{5A9206A6-C9EF-478F-B2F2-18FA90736B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E0842E9-82CD-447A-927D-61B05CC9C70F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="-120" windowWidth="27255" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey-results-schema (2)" sheetId="2" r:id="rId1"/>
@@ -2349,11 +2349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D157"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D150"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
@@ -2375,7 +2374,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>159</v>
       </c>
@@ -2383,7 +2382,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>161</v>
       </c>
@@ -2391,7 +2390,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>163</v>
       </c>
@@ -2399,7 +2398,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>165</v>
       </c>
@@ -2407,7 +2406,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>167</v>
       </c>
@@ -2415,7 +2414,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>169</v>
       </c>
@@ -2423,7 +2422,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>171</v>
       </c>
@@ -2431,7 +2430,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>173</v>
       </c>
@@ -2439,7 +2438,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>175</v>
       </c>
@@ -2447,7 +2446,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>177</v>
       </c>
@@ -2455,7 +2454,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>179</v>
       </c>
@@ -2493,7 +2492,7 @@
         <v>'YearsCodedJob',</v>
       </c>
     </row>
-    <row r="15" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>185</v>
       </c>
@@ -2561,7 +2560,7 @@
         <v>'NonDeveloperType',</v>
       </c>
     </row>
-    <row r="20" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>195</v>
       </c>
@@ -2569,7 +2568,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>197</v>
       </c>
@@ -2577,7 +2576,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>199</v>
       </c>
@@ -2585,7 +2584,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>201</v>
       </c>
@@ -2593,7 +2592,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>203</v>
       </c>
@@ -2601,7 +2600,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>205</v>
       </c>
@@ -2609,7 +2608,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>207</v>
       </c>
@@ -2617,7 +2616,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>209</v>
       </c>
@@ -2625,7 +2624,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>211</v>
       </c>
@@ -2633,7 +2632,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>213</v>
       </c>
@@ -2641,7 +2640,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>215</v>
       </c>
@@ -2709,7 +2708,7 @@
         <v>'BoringDetails',</v>
       </c>
     </row>
-    <row r="35" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>225</v>
       </c>
@@ -2717,7 +2716,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="36" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>227</v>
       </c>
@@ -2725,7 +2724,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>229</v>
       </c>
@@ -2808,7 +2807,7 @@
         <v>'InvestTimeTools',</v>
       </c>
     </row>
-    <row r="43" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>241</v>
       </c>
@@ -2816,7 +2815,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>243</v>
       </c>
@@ -2869,7 +2868,7 @@
         <v>'ChangeWorld',</v>
       </c>
     </row>
-    <row r="48" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
         <v>251</v>
       </c>
@@ -2877,7 +2876,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="49" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>253</v>
       </c>
@@ -2885,7 +2884,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="50" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
         <v>255</v>
       </c>
@@ -2893,7 +2892,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="51" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
         <v>257</v>
       </c>
@@ -2901,7 +2900,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="52" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
         <v>259</v>
       </c>
@@ -2909,7 +2908,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
         <v>261</v>
       </c>
@@ -2917,7 +2916,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="54" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
         <v>263</v>
       </c>
@@ -2925,7 +2924,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="55" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>265</v>
       </c>
@@ -2933,7 +2932,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="56" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
         <v>267</v>
       </c>
@@ -2941,7 +2940,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="57" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
         <v>269</v>
       </c>
@@ -2949,7 +2948,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
         <v>271</v>
       </c>
@@ -2957,7 +2956,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="59" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
         <v>273</v>
       </c>
@@ -2965,7 +2964,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="60" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
         <v>275</v>
       </c>
@@ -2973,7 +2972,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="61" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
         <v>277</v>
       </c>
@@ -2981,7 +2980,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="62" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
         <v>279</v>
       </c>
@@ -2989,7 +2988,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="63" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
         <v>281</v>
       </c>
@@ -2997,7 +2996,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="64" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
         <v>283</v>
       </c>
@@ -3005,7 +3004,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="65" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
         <v>285</v>
       </c>
@@ -3013,7 +3012,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="66" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
         <v>287</v>
       </c>
@@ -3021,7 +3020,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="67" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
         <v>289</v>
       </c>
@@ -3029,7 +3028,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="68" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
         <v>291</v>
       </c>
@@ -3037,7 +3036,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="69" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
         <v>293</v>
       </c>
@@ -3045,7 +3044,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="70" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
         <v>295</v>
       </c>
@@ -3053,7 +3052,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="71" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
         <v>297</v>
       </c>
@@ -3061,7 +3060,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="72" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B72" t="s">
         <v>299</v>
       </c>
@@ -3069,7 +3068,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B73" t="s">
         <v>301</v>
       </c>
@@ -3077,7 +3076,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
         <v>303</v>
       </c>
@@ -3085,7 +3084,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="75" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
         <v>305</v>
       </c>
@@ -3093,7 +3092,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="76" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B76" t="s">
         <v>307</v>
       </c>
@@ -3101,7 +3100,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="77" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B77" t="s">
         <v>309</v>
       </c>
@@ -3109,7 +3108,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="78" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B78" t="s">
         <v>311</v>
       </c>
@@ -3117,7 +3116,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="79" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B79" t="s">
         <v>313</v>
       </c>
@@ -3125,7 +3124,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="80" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B80" t="s">
         <v>315</v>
       </c>
@@ -3133,7 +3132,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="81" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
         <v>317</v>
       </c>
@@ -3141,7 +3140,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="82" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
         <v>319</v>
       </c>
@@ -3149,7 +3148,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="83" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
         <v>321</v>
       </c>
@@ -3157,7 +3156,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="84" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B84" t="s">
         <v>323</v>
       </c>
@@ -3165,7 +3164,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="85" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B85" t="s">
         <v>325</v>
       </c>
@@ -3173,7 +3172,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="86" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B86" t="s">
         <v>327</v>
       </c>
@@ -3181,7 +3180,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="87" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
         <v>329</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="88" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
         <v>331</v>
       </c>
@@ -3197,7 +3196,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="89" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B89" t="s">
         <v>333</v>
       </c>
@@ -3208,7 +3207,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="90" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B90" t="s">
         <v>336</v>
       </c>
@@ -3219,7 +3218,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="91" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B91" t="s">
         <v>338</v>
       </c>
@@ -3287,7 +3286,7 @@
         <v>'WantWorkFramework',</v>
       </c>
     </row>
-    <row r="96" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B96" t="s">
         <v>346</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="97" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B97" t="s">
         <v>348</v>
       </c>
@@ -3303,7 +3302,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="98" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B98" t="s">
         <v>349</v>
       </c>
@@ -3311,7 +3310,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="99" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B99" t="s">
         <v>351</v>
       </c>
@@ -3319,7 +3318,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="100" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B100" t="s">
         <v>352</v>
       </c>
@@ -3327,7 +3326,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="101" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B101" t="s">
         <v>354</v>
       </c>
@@ -3335,7 +3334,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="102" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B102" t="s">
         <v>356</v>
       </c>
@@ -3343,7 +3342,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="103" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B103" t="s">
         <v>358</v>
       </c>
@@ -3351,7 +3350,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="104" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B104" t="s">
         <v>360</v>
       </c>
@@ -3359,7 +3358,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="105" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B105" t="s">
         <v>362</v>
       </c>
@@ -3367,7 +3366,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="106" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B106" t="s">
         <v>364</v>
       </c>
@@ -3375,7 +3374,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="107" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B107" t="s">
         <v>366</v>
       </c>
@@ -3383,7 +3382,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="108" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B108" t="s">
         <v>368</v>
       </c>
@@ -3391,7 +3390,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="109" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B109" t="s">
         <v>370</v>
       </c>
@@ -3399,7 +3398,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="110" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B110" t="s">
         <v>372</v>
       </c>
@@ -3407,7 +3406,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="111" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B111" t="s">
         <v>374</v>
       </c>
@@ -3415,7 +3414,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="112" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B112" t="s">
         <v>376</v>
       </c>
@@ -3423,7 +3422,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="113" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B113" t="s">
         <v>378</v>
       </c>
@@ -3431,7 +3430,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="114" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B114" t="s">
         <v>380</v>
       </c>
@@ -3439,7 +3438,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="115" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B115" t="s">
         <v>382</v>
       </c>
@@ -3447,7 +3446,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="116" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B116" t="s">
         <v>384</v>
       </c>
@@ -3455,7 +3454,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="117" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B117" t="s">
         <v>386</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="118" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B118" t="s">
         <v>388</v>
       </c>
@@ -3471,7 +3470,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="119" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B119" t="s">
         <v>390</v>
       </c>
@@ -3479,7 +3478,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="120" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B120" t="s">
         <v>392</v>
       </c>
@@ -3487,7 +3486,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="121" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B121" t="s">
         <v>394</v>
       </c>
@@ -3495,7 +3494,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="122" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B122" t="s">
         <v>396</v>
       </c>
@@ -3503,7 +3502,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="123" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B123" t="s">
         <v>398</v>
       </c>
@@ -3511,7 +3510,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="124" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B124" t="s">
         <v>400</v>
       </c>
@@ -3519,7 +3518,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="125" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B125" t="s">
         <v>402</v>
       </c>
@@ -3527,7 +3526,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="126" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B126" t="s">
         <v>404</v>
       </c>
@@ -3535,7 +3534,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="127" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B127" t="s">
         <v>406</v>
       </c>
@@ -3543,7 +3542,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="128" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B128" t="s">
         <v>408</v>
       </c>
@@ -3551,7 +3550,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="129" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B129" t="s">
         <v>410</v>
       </c>
@@ -3559,7 +3558,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="130" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B130" t="s">
         <v>412</v>
       </c>
@@ -3567,7 +3566,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="131" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B131" t="s">
         <v>413</v>
       </c>
@@ -3575,7 +3574,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="132" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B132" t="s">
         <v>415</v>
       </c>
@@ -3583,7 +3582,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="133" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B133" t="s">
         <v>417</v>
       </c>
@@ -3591,7 +3590,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="134" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B134" t="s">
         <v>419</v>
       </c>
@@ -3599,7 +3598,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="135" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B135" t="s">
         <v>421</v>
       </c>
@@ -3607,7 +3606,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="136" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B136" t="s">
         <v>423</v>
       </c>
@@ -3615,7 +3614,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="137" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B137" t="s">
         <v>425</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="138" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B138" t="s">
         <v>427</v>
       </c>
@@ -3631,7 +3630,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="139" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B139" t="s">
         <v>429</v>
       </c>
@@ -3639,7 +3638,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="140" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B140" t="s">
         <v>431</v>
       </c>
@@ -3647,7 +3646,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="141" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B141" t="s">
         <v>433</v>
       </c>
@@ -3655,7 +3654,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="142" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B142" t="s">
         <v>435</v>
       </c>
@@ -3663,7 +3662,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="143" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B143" t="s">
         <v>437</v>
       </c>
@@ -3671,7 +3670,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="144" spans="2:3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B144" t="s">
         <v>439</v>
       </c>
@@ -3679,7 +3678,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="145" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B145" t="s">
         <v>441</v>
       </c>
@@ -3687,7 +3686,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="146" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B146" t="s">
         <v>443</v>
       </c>
@@ -3695,7 +3694,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="147" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B147" t="s">
         <v>445</v>
       </c>
@@ -3703,7 +3702,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="148" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B148" t="s">
         <v>447</v>
       </c>
@@ -3711,7 +3710,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="149" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B149" t="s">
         <v>449</v>
       </c>
@@ -3734,7 +3733,7 @@
         <v>'HighestEducationParents',</v>
       </c>
     </row>
-    <row r="151" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B151" t="s">
         <v>453</v>
       </c>
@@ -3742,7 +3741,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="152" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B152" t="s">
         <v>455</v>
       </c>
@@ -3750,7 +3749,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="153" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B153" t="s">
         <v>457</v>
       </c>
@@ -3758,7 +3757,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="154" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B154" t="s">
         <v>459</v>
       </c>
@@ -3766,7 +3765,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="155" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B155" t="s">
         <v>461</v>
       </c>
@@ -3774,7 +3773,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="156" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B156" t="s">
         <v>463</v>
       </c>
@@ -3782,7 +3781,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="157" spans="1:4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B157" t="s">
         <v>465</v>
       </c>
@@ -3791,13 +3790,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D157" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D157" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3807,7 +3800,7 @@
   <dimension ref="A1:A157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
@@ -4606,7 +4599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990AAE54-9A3F-44DA-AFDB-AF3796E83DDE}">
   <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:W1"/>
     </sheetView>
   </sheetViews>

--- a/survey-results-schema.xlsx
+++ b/survey-results-schema.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://porsche-my.sharepoint.com/personal/oliver_balb_porsche_de/Documents/Documents/_Orga/96 - Training/DataScience/04 Data Scientist/3C2S/DS3BP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{5A9206A6-C9EF-478F-B2F2-18FA90736B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E0842E9-82CD-447A-927D-61B05CC9C70F}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{5A9206A6-C9EF-478F-B2F2-18FA90736B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{723E1E73-0FE2-4BD7-A2F7-F993598FBB9E}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="-120" windowWidth="27255" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="-120" windowWidth="36855" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey-results-schema (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="survey-results-schema" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="PopulationRatio" sheetId="3" r:id="rId2"/>
+    <sheet name="survey-results-schema" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'survey-results-schema (2)'!$A$1:$D$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'survey-results-schema (2)'!$A$1:$E$155</definedName>
+    <definedName name="PopulationRatio">PopulationRatio!$A$2:$B$155</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="466">
   <si>
     <t>Column,Question</t>
   </si>
@@ -1039,21 +1040,6 @@
     <t>Let's pretend you have a distant cousin. They are 24 years old, have a college degree in a field not related to computer programming, and have been working a non-coding job for the last two years. They want your advice on how to switch to a career as a software developer. Which of the following options would you most strongly recommend to your cousin?</t>
   </si>
   <si>
-    <t>Let's pretend you have a distant cousin named Robert. He is 24 years old</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> has a college degree in a field not related to computer programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> and has been working a non-coding job for the last two years. He wants your advice on how to switch to a career as a software developer. Which of the following options would you most strongly recommend to Robert?</t>
-  </si>
-  <si>
-    <t>Let's pretend you have a distant cousin named Alice. She is 24 years old</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> and has been working a non-coding job for the last two years. She wants your advice on how to switch to a career as a software developer. Which of the following options would you most strongly recommend to Alice?"</t>
-  </si>
-  <si>
     <t>WorkStart</t>
   </si>
   <si>
@@ -1447,80 +1433,17 @@
     <t>Relevance</t>
   </si>
   <si>
-    <t>'YearsProgram',</t>
-  </si>
-  <si>
-    <t>'YearsCodedJob',</t>
-  </si>
-  <si>
-    <t>'DeveloperType',</t>
-  </si>
-  <si>
-    <t>'WebDeveloperType',</t>
-  </si>
-  <si>
-    <t>'MobileDeveloperType',</t>
-  </si>
-  <si>
-    <t>'NonDeveloperType',</t>
-  </si>
-  <si>
-    <t>'ProblemSolving',</t>
-  </si>
-  <si>
-    <t>'BuildingThings',</t>
-  </si>
-  <si>
-    <t>'LearningNewTech',</t>
-  </si>
-  <si>
-    <t>'BoringDetails',</t>
-  </si>
-  <si>
-    <t>'FriendsDevelopers',</t>
-  </si>
-  <si>
-    <t>'RightWrongWay',</t>
-  </si>
-  <si>
-    <t>'UnderstandComputers',</t>
-  </si>
-  <si>
-    <t>'SeriousWork',</t>
-  </si>
-  <si>
-    <t>'InvestTimeTools',</t>
-  </si>
-  <si>
-    <t>'ChallengeMyself',</t>
-  </si>
-  <si>
-    <t>'CompetePeers',</t>
-  </si>
-  <si>
-    <t>'ChangeWorld',</t>
-  </si>
-  <si>
-    <t>'HaveWorkedLanguage',</t>
-  </si>
-  <si>
-    <t>'WantWorkLanguage',</t>
-  </si>
-  <si>
-    <t>'HaveWorkedFramework',</t>
-  </si>
-  <si>
-    <t>'WantWorkFramework',</t>
-  </si>
-  <si>
-    <t>'HighestEducationParents',</t>
+    <t>ListValue</t>
+  </si>
+  <si>
+    <t>PopulationRatio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1639,10 +1562,15 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Porsche Next TT"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1942,7 +1870,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1985,8 +1913,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1994,8 +1923,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2035,6 +1972,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -2349,1453 +2287,3468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D157"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="51.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="30.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="120.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="4"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+      <c r="E1" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" customFormat="1">
+      <c r="B2" s="6">
+        <f>VLOOKUP(C2,PopulationRatio,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>159</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" customFormat="1">
+      <c r="B3" s="6">
+        <f>VLOOKUP(C3,PopulationRatio,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>161</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" customFormat="1">
+      <c r="B4" s="6">
+        <f>VLOOKUP(C4,PopulationRatio,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>163</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" customFormat="1">
+      <c r="B5" s="6">
+        <f>VLOOKUP(C5,PopulationRatio,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>165</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" customFormat="1">
+      <c r="B6" s="6">
+        <f>VLOOKUP(C6,PopulationRatio,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>167</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" customFormat="1">
+      <c r="B7" s="6">
+        <f>VLOOKUP(C7,PopulationRatio,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>169</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" customFormat="1">
+      <c r="B8" s="6">
+        <f>VLOOKUP(C8,PopulationRatio,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>171</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" customFormat="1">
+      <c r="B9" s="6">
+        <f>VLOOKUP(C9,PopulationRatio,2,FALSE)</f>
+        <v>0.83361200000000002</v>
+      </c>
+      <c r="C9" t="s">
         <v>173</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" customFormat="1">
+      <c r="B10" s="6">
+        <f>VLOOKUP(C10,PopulationRatio,2,FALSE)</f>
+        <v>0.85631999999999997</v>
+      </c>
+      <c r="C10" t="s">
         <v>175</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" customFormat="1">
+      <c r="B11" s="6">
+        <f>VLOOKUP(C11,PopulationRatio,2,FALSE)</f>
+        <v>0.757355</v>
+      </c>
+      <c r="C11" t="s">
         <v>177</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" customFormat="1">
+      <c r="B12" s="6">
+        <f>VLOOKUP(C12,PopulationRatio,2,FALSE)</f>
+        <v>0.75542900000000002</v>
+      </c>
+      <c r="C12" t="s">
         <v>179</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B13" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B13" s="6">
+        <f>VLOOKUP(C13,PopulationRatio,2,FALSE)</f>
+        <v>0.99519400000000002</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D13" s="1" t="str">
-        <f>"'" &amp; B13 &amp; "',"</f>
+      <c r="E13" s="4" t="str">
+        <f>"'" &amp; C13 &amp; "',"</f>
         <v>'YearsProgram',</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B14" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B14" s="6">
+        <f>VLOOKUP(C14,PopulationRatio,2,FALSE)</f>
+        <v>0.79564900000000005</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="1" t="str">
-        <f>"'" &amp; B14 &amp; "',"</f>
+      <c r="E14" s="4" t="str">
+        <f>"'" &amp; C14 &amp; "',"</f>
         <v>'YearsCodedJob',</v>
       </c>
     </row>
-    <row r="15" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
+    <row r="15" spans="1:5" customFormat="1">
+      <c r="B15" s="6">
+        <f>VLOOKUP(C15,PopulationRatio,2,FALSE)</f>
+        <v>1.8952E-2</v>
+      </c>
+      <c r="C15" t="s">
         <v>185</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B16" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B16" s="6">
+        <f>VLOOKUP(C16,PopulationRatio,2,FALSE)</f>
+        <v>0.70293000000000005</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D16" s="1" t="str">
-        <f t="shared" ref="D16:D19" si="0">"'" &amp; B16 &amp; "',"</f>
+      <c r="E16" s="4" t="str">
+        <f t="shared" ref="E16:E19" si="0">"'" &amp; C16 &amp; "',"</f>
         <v>'DeveloperType',</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B17" s="6">
+        <f>VLOOKUP(C17,PopulationRatio,2,FALSE)</f>
+        <v>0.20812600000000001</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D17" s="1" t="str">
+      <c r="E17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>'WebDeveloperType',</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B18" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B18" s="6">
+        <f>VLOOKUP(C18,PopulationRatio,2,FALSE)</f>
+        <v>3.0218999999999999E-2</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="1" t="str">
+      <c r="E18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>'MobileDeveloperType',</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B19" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B19" s="6">
+        <f>VLOOKUP(C19,PopulationRatio,2,FALSE)</f>
+        <v>9.5150999999999999E-2</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D19" s="1" t="str">
+      <c r="E19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>'NonDeveloperType',</v>
       </c>
     </row>
-    <row r="20" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
+    <row r="20" spans="1:5" customFormat="1">
+      <c r="B20" s="6">
+        <f>VLOOKUP(C20,PopulationRatio,2,FALSE)</f>
+        <v>0.83077100000000004</v>
+      </c>
+      <c r="C20" t="s">
         <v>195</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" customFormat="1">
+      <c r="B21" s="6">
+        <f>VLOOKUP(C21,PopulationRatio,2,FALSE)</f>
+        <v>0.78564800000000001</v>
+      </c>
+      <c r="C21" t="s">
         <v>197</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" customFormat="1">
+      <c r="B22" s="6">
+        <f>VLOOKUP(C22,PopulationRatio,2,FALSE)</f>
+        <v>1.796E-2</v>
+      </c>
+      <c r="C22" t="s">
         <v>199</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" customFormat="1">
+      <c r="B23" s="6">
+        <f>VLOOKUP(C23,PopulationRatio,2,FALSE)</f>
+        <v>1.7920999999999999E-2</v>
+      </c>
+      <c r="C23" t="s">
         <v>201</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" customFormat="1">
+      <c r="B24" s="6">
+        <f>VLOOKUP(C24,PopulationRatio,2,FALSE)</f>
+        <v>1.796E-2</v>
+      </c>
+      <c r="C24" t="s">
         <v>203</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" customFormat="1">
+      <c r="B25" s="6">
+        <f>VLOOKUP(C25,PopulationRatio,2,FALSE)</f>
+        <v>1.7843000000000001E-2</v>
+      </c>
+      <c r="C25" t="s">
         <v>205</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" customFormat="1">
+      <c r="B26" s="6">
+        <f>VLOOKUP(C26,PopulationRatio,2,FALSE)</f>
+        <v>1.8057E-2</v>
+      </c>
+      <c r="C26" t="s">
         <v>207</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" customFormat="1">
+      <c r="B27" s="6">
+        <f>VLOOKUP(C27,PopulationRatio,2,FALSE)</f>
+        <v>1.8193000000000001E-2</v>
+      </c>
+      <c r="C27" t="s">
         <v>209</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" customFormat="1">
+      <c r="B28" s="6">
+        <f>VLOOKUP(C28,PopulationRatio,2,FALSE)</f>
+        <v>1.7940999999999999E-2</v>
+      </c>
+      <c r="C28" t="s">
         <v>211</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" customFormat="1">
+      <c r="B29" s="6">
+        <f>VLOOKUP(C29,PopulationRatio,2,FALSE)</f>
+        <v>1.8096000000000001E-2</v>
+      </c>
+      <c r="C29" t="s">
         <v>213</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" customFormat="1">
+      <c r="B30" s="6">
+        <f>VLOOKUP(C30,PopulationRatio,2,FALSE)</f>
+        <v>0.99252799999999997</v>
+      </c>
+      <c r="C30" t="s">
         <v>215</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B31" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B31" s="6">
+        <f>VLOOKUP(C31,PopulationRatio,2,FALSE)</f>
+        <v>0.608908</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D31" s="1" t="str">
-        <f t="shared" ref="D31:D34" si="1">"'" &amp; B31 &amp; "',"</f>
+      <c r="E31" s="4" t="str">
+        <f t="shared" ref="E31:E34" si="1">"'" &amp; C31 &amp; "',"</f>
         <v>'ProblemSolving',</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B32" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B32" s="6">
+        <f>VLOOKUP(C32,PopulationRatio,2,FALSE)</f>
+        <v>0.60775999999999997</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D32" s="1" t="str">
+      <c r="E32" s="4" t="str">
         <f t="shared" si="1"/>
         <v>'BuildingThings',</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B33" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B33" s="6">
+        <f>VLOOKUP(C33,PopulationRatio,2,FALSE)</f>
+        <v>0.60912200000000005</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D33" s="1" t="str">
+      <c r="E33" s="4" t="str">
         <f t="shared" si="1"/>
         <v>'LearningNewTech',</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B34" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B34" s="6">
+        <f>VLOOKUP(C34,PopulationRatio,2,FALSE)</f>
+        <v>0.60678699999999997</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D34" s="1" t="str">
+      <c r="E34" s="4" t="str">
         <f t="shared" si="1"/>
         <v>'BoringDetails',</v>
       </c>
     </row>
-    <row r="35" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B35" t="s">
+    <row r="35" spans="1:5" customFormat="1">
+      <c r="B35" s="6">
+        <f>VLOOKUP(C35,PopulationRatio,2,FALSE)</f>
+        <v>0.607877</v>
+      </c>
+      <c r="C35" t="s">
         <v>225</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" customFormat="1">
+      <c r="B36" s="6">
+        <f>VLOOKUP(C36,PopulationRatio,2,FALSE)</f>
+        <v>0.60131900000000005</v>
+      </c>
+      <c r="C36" t="s">
         <v>227</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B37" t="s">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" customFormat="1">
+      <c r="B37" s="6">
+        <f>VLOOKUP(C37,PopulationRatio,2,FALSE)</f>
+        <v>0.60361500000000001</v>
+      </c>
+      <c r="C37" t="s">
         <v>229</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B38" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B38" s="6">
+        <f>VLOOKUP(C38,PopulationRatio,2,FALSE)</f>
+        <v>0.60431599999999996</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D38" s="1" t="str">
-        <f t="shared" ref="D38:D42" si="2">"'" &amp; B38 &amp; "',"</f>
+      <c r="E38" s="4" t="str">
+        <f t="shared" ref="E38:E42" si="2">"'" &amp; C38 &amp; "',"</f>
         <v>'FriendsDevelopers',</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B39" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B39" s="6">
+        <f>VLOOKUP(C39,PopulationRatio,2,FALSE)</f>
+        <v>0.60289499999999996</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D39" s="1" t="str">
+      <c r="E39" s="4" t="str">
         <f t="shared" si="2"/>
         <v>'RightWrongWay',</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B40" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B40" s="6">
+        <f>VLOOKUP(C40,PopulationRatio,2,FALSE)</f>
+        <v>0.60412100000000002</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D40" s="1" t="str">
+      <c r="E40" s="4" t="str">
         <f t="shared" si="2"/>
         <v>'UnderstandComputers',</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B41" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B41" s="6">
+        <f>VLOOKUP(C41,PopulationRatio,2,FALSE)</f>
+        <v>0.60347899999999999</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D41" s="1" t="str">
+      <c r="E41" s="4" t="str">
         <f t="shared" si="2"/>
         <v>'SeriousWork',</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B42" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B42" s="6">
+        <f>VLOOKUP(C42,PopulationRatio,2,FALSE)</f>
+        <v>0.60098799999999997</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D42" s="1" t="str">
+      <c r="E42" s="4" t="str">
         <f t="shared" si="2"/>
         <v>'InvestTimeTools',</v>
       </c>
     </row>
-    <row r="43" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B43" t="s">
+    <row r="43" spans="1:5" customFormat="1">
+      <c r="B43" s="6">
+        <f>VLOOKUP(C43,PopulationRatio,2,FALSE)</f>
+        <v>0.60252600000000001</v>
+      </c>
+      <c r="C43" t="s">
         <v>241</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B44" t="s">
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" customFormat="1">
+      <c r="B44" s="6">
+        <f>VLOOKUP(C44,PopulationRatio,2,FALSE)</f>
+        <v>0.59740800000000005</v>
+      </c>
+      <c r="C44" t="s">
         <v>243</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B45" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B45" s="6">
+        <f>VLOOKUP(C45,PopulationRatio,2,FALSE)</f>
+        <v>0.60264200000000001</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D45" s="1" t="str">
-        <f t="shared" ref="D45:D47" si="3">"'" &amp; B45 &amp; "',"</f>
+      <c r="E45" s="4" t="str">
+        <f t="shared" ref="E45:E47" si="3">"'" &amp; C45 &amp; "',"</f>
         <v>'ChallengeMyself',</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B46" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B46" s="6">
+        <f>VLOOKUP(C46,PopulationRatio,2,FALSE)</f>
+        <v>0.59950999999999999</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D46" s="1" t="str">
+      <c r="E46" s="4" t="str">
         <f t="shared" si="3"/>
         <v>'CompetePeers',</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B47" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B47" s="6">
+        <f>VLOOKUP(C47,PopulationRatio,2,FALSE)</f>
+        <v>0.60194199999999998</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D47" s="1" t="str">
+      <c r="E47" s="4" t="str">
         <f t="shared" si="3"/>
         <v>'ChangeWorld',</v>
       </c>
     </row>
-    <row r="48" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B48" t="s">
+    <row r="48" spans="1:5" customFormat="1">
+      <c r="B48" s="6">
+        <f>VLOOKUP(C48,PopulationRatio,2,FALSE)</f>
+        <v>0.64951700000000001</v>
+      </c>
+      <c r="C48" t="s">
         <v>251</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B49" t="s">
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="2:5" customFormat="1">
+      <c r="B49" s="6">
+        <f>VLOOKUP(C49,PopulationRatio,2,FALSE)</f>
+        <v>0.400841</v>
+      </c>
+      <c r="C49" t="s">
         <v>253</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B50" t="s">
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="2:5" customFormat="1">
+      <c r="B50" s="6">
+        <f>VLOOKUP(C50,PopulationRatio,2,FALSE)</f>
+        <v>0.63648000000000005</v>
+      </c>
+      <c r="C50" t="s">
         <v>255</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B51" t="s">
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="2:5" customFormat="1">
+      <c r="B51" s="6">
+        <f>VLOOKUP(C51,PopulationRatio,2,FALSE)</f>
+        <v>0.43061199999999999</v>
+      </c>
+      <c r="C51" t="s">
         <v>257</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B52" t="s">
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="2:5" customFormat="1">
+      <c r="B52" s="6">
+        <f>VLOOKUP(C52,PopulationRatio,2,FALSE)</f>
+        <v>0.43094300000000002</v>
+      </c>
+      <c r="C52" t="s">
         <v>259</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B53" t="s">
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="2:5" customFormat="1">
+      <c r="B53" s="6">
+        <f>VLOOKUP(C53,PopulationRatio,2,FALSE)</f>
+        <v>0.43072899999999997</v>
+      </c>
+      <c r="C53" t="s">
         <v>261</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B54" t="s">
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="2:5" customFormat="1">
+      <c r="B54" s="6">
+        <f>VLOOKUP(C54,PopulationRatio,2,FALSE)</f>
+        <v>0.43047600000000003</v>
+      </c>
+      <c r="C54" t="s">
         <v>263</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B55" t="s">
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="2:5" customFormat="1">
+      <c r="B55" s="6">
+        <f>VLOOKUP(C55,PopulationRatio,2,FALSE)</f>
+        <v>0.43175999999999998</v>
+      </c>
+      <c r="C55" t="s">
         <v>265</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" s="3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B56" t="s">
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="2:5" customFormat="1">
+      <c r="B56" s="6">
+        <f>VLOOKUP(C56,PopulationRatio,2,FALSE)</f>
+        <v>0.431643</v>
+      </c>
+      <c r="C56" t="s">
         <v>267</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B57" t="s">
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="2:5" customFormat="1">
+      <c r="B57" s="6">
+        <f>VLOOKUP(C57,PopulationRatio,2,FALSE)</f>
+        <v>0.430923</v>
+      </c>
+      <c r="C57" t="s">
         <v>269</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B58" t="s">
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="2:5" customFormat="1">
+      <c r="B58" s="6">
+        <f>VLOOKUP(C58,PopulationRatio,2,FALSE)</f>
+        <v>0.42815999999999999</v>
+      </c>
+      <c r="C58" t="s">
         <v>271</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" s="3" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B59" t="s">
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="2:5" customFormat="1">
+      <c r="B59" s="6">
+        <f>VLOOKUP(C59,PopulationRatio,2,FALSE)</f>
+        <v>0.42755700000000002</v>
+      </c>
+      <c r="C59" t="s">
         <v>273</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B60" t="s">
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="2:5" customFormat="1">
+      <c r="B60" s="6">
+        <f>VLOOKUP(C60,PopulationRatio,2,FALSE)</f>
+        <v>0.42847099999999999</v>
+      </c>
+      <c r="C60" t="s">
         <v>275</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B61" t="s">
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="2:5" customFormat="1">
+      <c r="B61" s="6">
+        <f>VLOOKUP(C61,PopulationRatio,2,FALSE)</f>
+        <v>0.42781000000000002</v>
+      </c>
+      <c r="C61" t="s">
         <v>277</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B62" t="s">
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="2:5" customFormat="1">
+      <c r="B62" s="6">
+        <f>VLOOKUP(C62,PopulationRatio,2,FALSE)</f>
+        <v>0.42804300000000001</v>
+      </c>
+      <c r="C62" t="s">
         <v>279</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" s="3" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B63" t="s">
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="2:5" customFormat="1">
+      <c r="B63" s="6">
+        <f>VLOOKUP(C63,PopulationRatio,2,FALSE)</f>
+        <v>0.42765399999999998</v>
+      </c>
+      <c r="C63" t="s">
         <v>281</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" s="3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B64" t="s">
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="2:5" customFormat="1">
+      <c r="B64" s="6">
+        <f>VLOOKUP(C64,PopulationRatio,2,FALSE)</f>
+        <v>0.42802400000000002</v>
+      </c>
+      <c r="C64" t="s">
         <v>283</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B65" t="s">
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="2:5" customFormat="1">
+      <c r="B65" s="6">
+        <f>VLOOKUP(C65,PopulationRatio,2,FALSE)</f>
+        <v>0.42853000000000002</v>
+      </c>
+      <c r="C65" t="s">
         <v>285</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" s="3" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B66" t="s">
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="2:5" customFormat="1">
+      <c r="B66" s="6">
+        <f>VLOOKUP(C66,PopulationRatio,2,FALSE)</f>
+        <v>0.58832099999999998</v>
+      </c>
+      <c r="C66" t="s">
         <v>287</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" s="3" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B67" t="s">
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="2:5" customFormat="1">
+      <c r="B67" s="6">
+        <f>VLOOKUP(C67,PopulationRatio,2,FALSE)</f>
+        <v>0.81814299999999995</v>
+      </c>
+      <c r="C67" t="s">
         <v>289</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B68" t="s">
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="2:5" customFormat="1">
+      <c r="B68" s="6">
+        <f>VLOOKUP(C68,PopulationRatio,2,FALSE)</f>
+        <v>0.480989</v>
+      </c>
+      <c r="C68" t="s">
         <v>291</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B69" t="s">
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="2:5" customFormat="1">
+      <c r="B69" s="6">
+        <f>VLOOKUP(C69,PopulationRatio,2,FALSE)</f>
+        <v>0.437052</v>
+      </c>
+      <c r="C69" t="s">
         <v>293</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" s="3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B70" t="s">
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="2:5" customFormat="1">
+      <c r="B70" s="6">
+        <f>VLOOKUP(C70,PopulationRatio,2,FALSE)</f>
+        <v>0.46188099999999999</v>
+      </c>
+      <c r="C70" t="s">
         <v>295</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="71" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B71" t="s">
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="2:5" customFormat="1">
+      <c r="B71" s="6">
+        <f>VLOOKUP(C71,PopulationRatio,2,FALSE)</f>
+        <v>0.55732400000000004</v>
+      </c>
+      <c r="C71" t="s">
         <v>297</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="72" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B72" t="s">
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="2:5" customFormat="1">
+      <c r="B72" s="6">
+        <f>VLOOKUP(C72,PopulationRatio,2,FALSE)</f>
+        <v>0.55833600000000005</v>
+      </c>
+      <c r="C72" t="s">
         <v>299</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" s="3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="73" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B73" t="s">
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="2:5" customFormat="1">
+      <c r="B73" s="6">
+        <f>VLOOKUP(C73,PopulationRatio,2,FALSE)</f>
+        <v>0.55726600000000004</v>
+      </c>
+      <c r="C73" t="s">
         <v>301</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B74" t="s">
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="2:5" customFormat="1">
+      <c r="B74" s="6">
+        <f>VLOOKUP(C74,PopulationRatio,2,FALSE)</f>
+        <v>0.55642899999999995</v>
+      </c>
+      <c r="C74" t="s">
         <v>303</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" s="3" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B75" t="s">
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="2:5" customFormat="1">
+      <c r="B75" s="6">
+        <f>VLOOKUP(C75,PopulationRatio,2,FALSE)</f>
+        <v>0.55683800000000006</v>
+      </c>
+      <c r="C75" t="s">
         <v>305</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" s="3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="76" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B76" t="s">
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="2:5" customFormat="1">
+      <c r="B76" s="6">
+        <f>VLOOKUP(C76,PopulationRatio,2,FALSE)</f>
+        <v>0.55559199999999997</v>
+      </c>
+      <c r="C76" t="s">
         <v>307</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="77" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B77" t="s">
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="2:5" customFormat="1">
+      <c r="B77" s="6">
+        <f>VLOOKUP(C77,PopulationRatio,2,FALSE)</f>
+        <v>0.55559199999999997</v>
+      </c>
+      <c r="C77" t="s">
         <v>309</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" s="3" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="78" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B78" t="s">
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="2:5" customFormat="1">
+      <c r="B78" s="6">
+        <f>VLOOKUP(C78,PopulationRatio,2,FALSE)</f>
+        <v>0.55773300000000003</v>
+      </c>
+      <c r="C78" t="s">
         <v>311</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" s="3" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="79" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B79" t="s">
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="2:5" customFormat="1">
+      <c r="B79" s="6">
+        <f>VLOOKUP(C79,PopulationRatio,2,FALSE)</f>
+        <v>0.55685700000000005</v>
+      </c>
+      <c r="C79" t="s">
         <v>313</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="80" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B80" t="s">
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="2:5" customFormat="1">
+      <c r="B80" s="6">
+        <f>VLOOKUP(C80,PopulationRatio,2,FALSE)</f>
+        <v>0.55543699999999996</v>
+      </c>
+      <c r="C80" t="s">
         <v>315</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" s="3" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B81" t="s">
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" customFormat="1">
+      <c r="B81" s="6">
+        <f>VLOOKUP(C81,PopulationRatio,2,FALSE)</f>
+        <v>0.41656300000000002</v>
+      </c>
+      <c r="C81" t="s">
         <v>317</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B82" t="s">
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" customFormat="1">
+      <c r="B82" s="6">
+        <f>VLOOKUP(C82,PopulationRatio,2,FALSE)</f>
+        <v>0.260488</v>
+      </c>
+      <c r="C82" t="s">
         <v>319</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" s="3" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B83" t="s">
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" customFormat="1">
+      <c r="B83" s="6">
+        <f>VLOOKUP(C83,PopulationRatio,2,FALSE)</f>
+        <v>0.75597400000000003</v>
+      </c>
+      <c r="C83" t="s">
         <v>321</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" s="3" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B84" t="s">
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" customFormat="1">
+      <c r="B84" s="6">
+        <f>VLOOKUP(C84,PopulationRatio,2,FALSE)</f>
+        <v>0.45444800000000002</v>
+      </c>
+      <c r="C84" t="s">
         <v>323</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" s="3" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B85" t="s">
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" customFormat="1">
+      <c r="B85" s="6">
+        <f>VLOOKUP(C85,PopulationRatio,2,FALSE)</f>
+        <v>0.59063699999999997</v>
+      </c>
+      <c r="C85" t="s">
         <v>325</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" s="3" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B86" t="s">
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" customFormat="1">
+      <c r="B86" s="6">
+        <f>VLOOKUP(C86,PopulationRatio,2,FALSE)</f>
+        <v>0.52021700000000004</v>
+      </c>
+      <c r="C86" t="s">
         <v>327</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B87" t="s">
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" customFormat="1">
+      <c r="B87" s="6">
+        <f>VLOOKUP(C87,PopulationRatio,2,FALSE)</f>
+        <v>5.0630000000000001E-2</v>
+      </c>
+      <c r="C87" t="s">
         <v>329</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B88" t="s">
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" customFormat="1">
+      <c r="B88" s="6">
+        <f>VLOOKUP(C88,PopulationRatio,2,FALSE)</f>
+        <v>0.45859299999999997</v>
+      </c>
+      <c r="C88" t="s">
         <v>331</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" s="3" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B89" t="s">
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" customFormat="1">
+      <c r="B89" s="6">
+        <f>VLOOKUP(C89,PopulationRatio,2,FALSE)</f>
+        <v>0.71404100000000004</v>
+      </c>
+      <c r="C89" t="s">
         <v>333</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B90" s="6">
+        <f>VLOOKUP(C90,PopulationRatio,2,FALSE)</f>
+        <v>0.71265999999999996</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B90" t="s">
+      <c r="D90" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C90" t="s">
-        <v>334</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="E90" s="4" t="str">
+        <f t="shared" ref="E90:E93" si="4">"'" &amp; C90 &amp; "',"</f>
+        <v>'HaveWorkedLanguage',</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B91" s="6">
+        <f>VLOOKUP(C91,PopulationRatio,2,FALSE)</f>
+        <v>0.65712599999999999</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B91" t="s">
-        <v>338</v>
-      </c>
-      <c r="C91" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D92" s="1" t="str">
-        <f t="shared" ref="D92:D95" si="4">"'" &amp; B92 &amp; "',"</f>
-        <v>'HaveWorkedLanguage',</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A93" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D93" s="1" t="str">
+      <c r="D91" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E91" s="4" t="str">
         <f t="shared" si="4"/>
         <v>'WantWorkLanguage',</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A94" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D94" s="1" t="str">
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B92" s="6">
+        <f>VLOOKUP(C92,PopulationRatio,2,FALSE)</f>
+        <v>0.39362200000000003</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E92" s="4" t="str">
         <f t="shared" si="4"/>
         <v>'HaveWorkedFramework',</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A95" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D95" s="1" t="str">
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B93" s="6">
+        <f>VLOOKUP(C93,PopulationRatio,2,FALSE)</f>
+        <v>0.45398100000000002</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E93" s="4" t="str">
         <f t="shared" si="4"/>
         <v>'WantWorkFramework',</v>
       </c>
     </row>
-    <row r="96" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B96" t="s">
+    <row r="94" spans="1:5" customFormat="1">
+      <c r="B94" s="6">
+        <f>VLOOKUP(C94,PopulationRatio,2,FALSE)</f>
+        <v>0.57308499999999996</v>
+      </c>
+      <c r="C94" t="s">
+        <v>341</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" customFormat="1">
+      <c r="B95" s="6">
+        <f>VLOOKUP(C95,PopulationRatio,2,FALSE)</f>
+        <v>0.48857800000000001</v>
+      </c>
+      <c r="C95" t="s">
+        <v>343</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" customFormat="1">
+      <c r="B96" s="6">
+        <f>VLOOKUP(C96,PopulationRatio,2,FALSE)</f>
+        <v>0.56650800000000001</v>
+      </c>
+      <c r="C96" t="s">
+        <v>344</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="2:5" customFormat="1">
+      <c r="B97" s="6">
+        <f>VLOOKUP(C97,PopulationRatio,2,FALSE)</f>
+        <v>0.54257500000000003</v>
+      </c>
+      <c r="C97" t="s">
         <v>346</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D97" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="2:5" customFormat="1">
+      <c r="B98" s="6">
+        <f>VLOOKUP(C98,PopulationRatio,2,FALSE)</f>
+        <v>0.69718999999999998</v>
+      </c>
+      <c r="C98" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="97" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B97" t="s">
+      <c r="D98" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="C97" t="s">
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="2:5" customFormat="1">
+      <c r="B99" s="6">
+        <f>VLOOKUP(C99,PopulationRatio,2,FALSE)</f>
+        <v>0.70939099999999999</v>
+      </c>
+      <c r="C99" t="s">
+        <v>349</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="2:5" customFormat="1">
+      <c r="B100" s="6">
+        <f>VLOOKUP(C100,PopulationRatio,2,FALSE)</f>
+        <v>0.50145899999999999</v>
+      </c>
+      <c r="C100" t="s">
+        <v>351</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="2:5" customFormat="1">
+      <c r="B101" s="6">
+        <f>VLOOKUP(C101,PopulationRatio,2,FALSE)</f>
+        <v>0.59795299999999996</v>
+      </c>
+      <c r="C101" t="s">
+        <v>353</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="2:5" customFormat="1">
+      <c r="B102" s="6">
+        <f>VLOOKUP(C102,PopulationRatio,2,FALSE)</f>
+        <v>0.575206</v>
+      </c>
+      <c r="C102" t="s">
+        <v>355</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="2:5" customFormat="1">
+      <c r="B103" s="6">
+        <f>VLOOKUP(C103,PopulationRatio,2,FALSE)</f>
+        <v>0.57676300000000003</v>
+      </c>
+      <c r="C103" t="s">
+        <v>357</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="2:5" customFormat="1">
+      <c r="B104" s="6">
+        <f>VLOOKUP(C104,PopulationRatio,2,FALSE)</f>
+        <v>0.57633500000000004</v>
+      </c>
+      <c r="C104" t="s">
+        <v>359</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="2:5" customFormat="1">
+      <c r="B105" s="6">
+        <f>VLOOKUP(C105,PopulationRatio,2,FALSE)</f>
+        <v>0.57205399999999995</v>
+      </c>
+      <c r="C105" t="s">
+        <v>361</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="2:5" customFormat="1">
+      <c r="B106" s="6">
+        <f>VLOOKUP(C106,PopulationRatio,2,FALSE)</f>
+        <v>0.57917600000000002</v>
+      </c>
+      <c r="C106" t="s">
+        <v>363</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="2:5" customFormat="1">
+      <c r="B107" s="6">
+        <f>VLOOKUP(C107,PopulationRatio,2,FALSE)</f>
+        <v>0.57110099999999997</v>
+      </c>
+      <c r="C107" t="s">
+        <v>365</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="2:5" customFormat="1">
+      <c r="B108" s="6">
+        <f>VLOOKUP(C108,PopulationRatio,2,FALSE)</f>
+        <v>0.57674300000000001</v>
+      </c>
+      <c r="C108" t="s">
+        <v>367</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="2:5" customFormat="1">
+      <c r="B109" s="6">
+        <f>VLOOKUP(C109,PopulationRatio,2,FALSE)</f>
+        <v>0.573183</v>
+      </c>
+      <c r="C109" t="s">
+        <v>369</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="2:5" customFormat="1">
+      <c r="B110" s="6">
+        <f>VLOOKUP(C110,PopulationRatio,2,FALSE)</f>
+        <v>0.495641</v>
+      </c>
+      <c r="C110" t="s">
+        <v>371</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="2:5" customFormat="1">
+      <c r="B111" s="6">
+        <f>VLOOKUP(C111,PopulationRatio,2,FALSE)</f>
+        <v>0.57839700000000005</v>
+      </c>
+      <c r="C111" t="s">
+        <v>373</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="2:5" customFormat="1">
+      <c r="B112" s="6">
+        <f>VLOOKUP(C112,PopulationRatio,2,FALSE)</f>
+        <v>0.57843599999999995</v>
+      </c>
+      <c r="C112" t="s">
+        <v>375</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="2:5" customFormat="1">
+      <c r="B113" s="6">
+        <f>VLOOKUP(C113,PopulationRatio,2,FALSE)</f>
+        <v>0.57861099999999999</v>
+      </c>
+      <c r="C113" t="s">
+        <v>377</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="2:5" customFormat="1">
+      <c r="B114" s="6">
+        <f>VLOOKUP(C114,PopulationRatio,2,FALSE)</f>
+        <v>0.57734700000000005</v>
+      </c>
+      <c r="C114" t="s">
+        <v>379</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="2:5" customFormat="1">
+      <c r="B115" s="6">
+        <f>VLOOKUP(C115,PopulationRatio,2,FALSE)</f>
+        <v>0.57769700000000002</v>
+      </c>
+      <c r="C115" t="s">
+        <v>381</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="2:5" customFormat="1">
+      <c r="B116" s="6">
+        <f>VLOOKUP(C116,PopulationRatio,2,FALSE)</f>
+        <v>0.57773600000000003</v>
+      </c>
+      <c r="C116" t="s">
+        <v>383</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="2:5" customFormat="1">
+      <c r="B117" s="6">
+        <f>VLOOKUP(C117,PopulationRatio,2,FALSE)</f>
+        <v>0.421427</v>
+      </c>
+      <c r="C117" t="s">
+        <v>385</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="2:5" customFormat="1">
+      <c r="B118" s="6">
+        <f>VLOOKUP(C118,PopulationRatio,2,FALSE)</f>
+        <v>0.42144700000000002</v>
+      </c>
+      <c r="C118" t="s">
+        <v>387</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="2:5" customFormat="1">
+      <c r="B119" s="6">
+        <f>VLOOKUP(C119,PopulationRatio,2,FALSE)</f>
+        <v>0.41998799999999997</v>
+      </c>
+      <c r="C119" t="s">
+        <v>389</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" spans="2:5" customFormat="1">
+      <c r="B120" s="6">
+        <f>VLOOKUP(C120,PopulationRatio,2,FALSE)</f>
+        <v>0.42031800000000002</v>
+      </c>
+      <c r="C120" t="s">
+        <v>391</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" spans="2:5" customFormat="1">
+      <c r="B121" s="6">
+        <f>VLOOKUP(C121,PopulationRatio,2,FALSE)</f>
+        <v>0.42016300000000001</v>
+      </c>
+      <c r="C121" t="s">
+        <v>393</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E121" s="3"/>
+    </row>
+    <row r="122" spans="2:5" customFormat="1">
+      <c r="B122" s="6">
+        <f>VLOOKUP(C122,PopulationRatio,2,FALSE)</f>
+        <v>0.42055199999999998</v>
+      </c>
+      <c r="C122" t="s">
+        <v>395</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E122" s="3"/>
+    </row>
+    <row r="123" spans="2:5" customFormat="1">
+      <c r="B123" s="6">
+        <f>VLOOKUP(C123,PopulationRatio,2,FALSE)</f>
+        <v>0.42060999999999998</v>
+      </c>
+      <c r="C123" t="s">
+        <v>397</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E123" s="3"/>
+    </row>
+    <row r="124" spans="2:5" customFormat="1">
+      <c r="B124" s="6">
+        <f>VLOOKUP(C124,PopulationRatio,2,FALSE)</f>
+        <v>0.42020200000000002</v>
+      </c>
+      <c r="C124" t="s">
+        <v>399</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="2:5" customFormat="1">
+      <c r="B125" s="6">
+        <f>VLOOKUP(C125,PopulationRatio,2,FALSE)</f>
+        <v>0.41922900000000002</v>
+      </c>
+      <c r="C125" t="s">
+        <v>401</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E125" s="3"/>
+    </row>
+    <row r="126" spans="2:5" customFormat="1">
+      <c r="B126" s="6">
+        <f>VLOOKUP(C126,PopulationRatio,2,FALSE)</f>
+        <v>0.42002600000000001</v>
+      </c>
+      <c r="C126" t="s">
+        <v>403</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E126" s="3"/>
+    </row>
+    <row r="127" spans="2:5" customFormat="1">
+      <c r="B127" s="6">
+        <f>VLOOKUP(C127,PopulationRatio,2,FALSE)</f>
+        <v>0.41987099999999999</v>
+      </c>
+      <c r="C127" t="s">
+        <v>405</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="2:5" customFormat="1">
+      <c r="B128" s="6">
+        <f>VLOOKUP(C128,PopulationRatio,2,FALSE)</f>
+        <v>0.71863299999999997</v>
+      </c>
+      <c r="C128" t="s">
+        <v>407</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="2:5" customFormat="1">
+      <c r="B129" s="6">
+        <f>VLOOKUP(C129,PopulationRatio,2,FALSE)</f>
+        <v>0.71201700000000001</v>
+      </c>
+      <c r="C129" t="s">
+        <v>408</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="2:5" customFormat="1">
+      <c r="B130" s="6">
+        <f>VLOOKUP(C130,PopulationRatio,2,FALSE)</f>
+        <v>0.68498999999999999</v>
+      </c>
+      <c r="C130" t="s">
+        <v>410</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="2:5" customFormat="1">
+      <c r="B131" s="6">
+        <f>VLOOKUP(C131,PopulationRatio,2,FALSE)</f>
+        <v>0.66722400000000004</v>
+      </c>
+      <c r="C131" t="s">
+        <v>412</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="2:5" customFormat="1">
+      <c r="B132" s="6">
+        <f>VLOOKUP(C132,PopulationRatio,2,FALSE)</f>
+        <v>0.65981100000000004</v>
+      </c>
+      <c r="C132" t="s">
+        <v>414</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E132" s="3"/>
+    </row>
+    <row r="133" spans="2:5" customFormat="1">
+      <c r="B133" s="6">
+        <f>VLOOKUP(C133,PopulationRatio,2,FALSE)</f>
+        <v>0.65122999999999998</v>
+      </c>
+      <c r="C133" t="s">
+        <v>416</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="E133" s="3"/>
+    </row>
+    <row r="134" spans="2:5" customFormat="1">
+      <c r="B134" s="6">
+        <f>VLOOKUP(C134,PopulationRatio,2,FALSE)</f>
+        <v>0.65058800000000006</v>
+      </c>
+      <c r="C134" t="s">
+        <v>418</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="2:5" customFormat="1">
+      <c r="B135" s="6">
+        <f>VLOOKUP(C135,PopulationRatio,2,FALSE)</f>
+        <v>0.65019800000000005</v>
+      </c>
+      <c r="C135" t="s">
+        <v>420</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E135" s="3"/>
+    </row>
+    <row r="136" spans="2:5" customFormat="1">
+      <c r="B136" s="6">
+        <f>VLOOKUP(C136,PopulationRatio,2,FALSE)</f>
+        <v>0.65414899999999998</v>
+      </c>
+      <c r="C136" t="s">
+        <v>422</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E136" s="3"/>
+    </row>
+    <row r="137" spans="2:5" customFormat="1">
+      <c r="B137" s="6">
+        <f>VLOOKUP(C137,PopulationRatio,2,FALSE)</f>
+        <v>0.65294200000000002</v>
+      </c>
+      <c r="C137" t="s">
+        <v>424</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E137" s="3"/>
+    </row>
+    <row r="138" spans="2:5" customFormat="1">
+      <c r="B138" s="6">
+        <f>VLOOKUP(C138,PopulationRatio,2,FALSE)</f>
+        <v>0.65004300000000004</v>
+      </c>
+      <c r="C138" t="s">
+        <v>426</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="2:5" customFormat="1">
+      <c r="B139" s="6">
+        <f>VLOOKUP(C139,PopulationRatio,2,FALSE)</f>
+        <v>0.59964600000000001</v>
+      </c>
+      <c r="C139" t="s">
+        <v>428</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="2:5" customFormat="1">
+      <c r="B140" s="6">
+        <f>VLOOKUP(C140,PopulationRatio,2,FALSE)</f>
+        <v>0.61754699999999996</v>
+      </c>
+      <c r="C140" t="s">
+        <v>430</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E140" s="3"/>
+    </row>
+    <row r="141" spans="2:5" customFormat="1">
+      <c r="B141" s="6">
+        <f>VLOOKUP(C141,PopulationRatio,2,FALSE)</f>
+        <v>0.58625899999999997</v>
+      </c>
+      <c r="C141" t="s">
+        <v>432</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="2:5" customFormat="1">
+      <c r="B142" s="6">
+        <f>VLOOKUP(C142,PopulationRatio,2,FALSE)</f>
+        <v>0.63064299999999995</v>
+      </c>
+      <c r="C142" t="s">
+        <v>434</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="2:5" customFormat="1">
+      <c r="B143" s="6">
+        <f>VLOOKUP(C143,PopulationRatio,2,FALSE)</f>
+        <v>0.66053099999999998</v>
+      </c>
+      <c r="C143" t="s">
+        <v>436</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="2:5" customFormat="1">
+      <c r="B144" s="6">
+        <f>VLOOKUP(C144,PopulationRatio,2,FALSE)</f>
+        <v>0.65477099999999999</v>
+      </c>
+      <c r="C144" t="s">
+        <v>438</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="1:5" customFormat="1">
+      <c r="B145" s="6">
+        <f>VLOOKUP(C145,PopulationRatio,2,FALSE)</f>
+        <v>0.64930299999999996</v>
+      </c>
+      <c r="C145" t="s">
+        <v>440</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="1:5" customFormat="1">
+      <c r="B146" s="6">
+        <f>VLOOKUP(C146,PopulationRatio,2,FALSE)</f>
+        <v>0.60441299999999998</v>
+      </c>
+      <c r="C146" t="s">
+        <v>442</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="1:5" customFormat="1">
+      <c r="B147" s="6">
+        <f>VLOOKUP(C147,PopulationRatio,2,FALSE)</f>
+        <v>0.68195399999999995</v>
+      </c>
+      <c r="C147" t="s">
+        <v>444</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B148" s="6">
+        <f>VLOOKUP(C148,PopulationRatio,2,FALSE)</f>
+        <v>0.67983300000000002</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E148" s="4" t="str">
+        <f t="shared" ref="E148" si="5">"'" &amp; C148 &amp; "',"</f>
+        <v>'HighestEducationParents',</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" customFormat="1">
+      <c r="B149" s="6">
+        <f>VLOOKUP(C149,PopulationRatio,2,FALSE)</f>
+        <v>0.64276500000000003</v>
+      </c>
+      <c r="C149" t="s">
+        <v>448</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="1:5" customFormat="1">
+      <c r="B150" s="6">
+        <f>VLOOKUP(C150,PopulationRatio,2,FALSE)</f>
+        <v>0.67559199999999997</v>
+      </c>
+      <c r="C150" t="s">
+        <v>450</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" spans="1:5" customFormat="1">
+      <c r="B151" s="6">
+        <f>VLOOKUP(C151,PopulationRatio,2,FALSE)</f>
+        <v>0.67201100000000002</v>
+      </c>
+      <c r="C151" t="s">
+        <v>452</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E151" s="3"/>
+    </row>
+    <row r="152" spans="1:5" customFormat="1">
+      <c r="B152" s="6">
+        <f>VLOOKUP(C152,PopulationRatio,2,FALSE)</f>
+        <v>0.66973499999999997</v>
+      </c>
+      <c r="C152" t="s">
+        <v>454</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E152" s="3"/>
+    </row>
+    <row r="153" spans="1:5" customFormat="1">
+      <c r="B153" s="6">
+        <f>VLOOKUP(C153,PopulationRatio,2,FALSE)</f>
+        <v>0.67349000000000003</v>
+      </c>
+      <c r="C153" t="s">
+        <v>456</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E153" s="3"/>
+    </row>
+    <row r="154" spans="1:5" customFormat="1">
+      <c r="B154" s="6">
+        <f>VLOOKUP(C154,PopulationRatio,2,FALSE)</f>
+        <v>0.25083699999999998</v>
+      </c>
+      <c r="C154" t="s">
+        <v>458</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="1:5" customFormat="1">
+      <c r="B155" s="6">
+        <f>VLOOKUP(C155,PopulationRatio,2,FALSE)</f>
+        <v>4.9930000000000002E-2</v>
+      </c>
+      <c r="C155" t="s">
+        <v>460</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E155" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E155" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5FAD5B42-6252-4DBB-97BC-2A420D97EDEC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5FAD5B42-6252-4DBB-97BC-2A420D97EDEC}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990AAE54-9A3F-44DA-AFDB-AF3796E83DDE}">
+  <dimension ref="A2:B155"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B155"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.83361200000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.85631999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.757355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.75542900000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.99519400000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.79564900000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1.8952E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.70293000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.20812600000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="6">
+        <v>3.0218999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="6">
+        <v>9.5150999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.83077100000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.78564800000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1.796E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1.7920999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1.796E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1.7843000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1.8057E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1.8193000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1.7940999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1.8096000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0.99252799999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.608908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0.60775999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="6">
+        <v>0.60912200000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34" s="6">
+        <v>0.60678699999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" s="6">
+        <v>0.607877</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="6">
+        <v>0.60131900000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B37" s="6">
+        <v>0.60361500000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0.60431599999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0.60289499999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0.60412100000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0.60347899999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B42" s="6">
+        <v>0.60098799999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0.60252600000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B44" s="6">
+        <v>0.59740800000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B45" s="6">
+        <v>0.60264200000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B46" s="6">
+        <v>0.59950999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B47" s="6">
+        <v>0.60194199999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B48" s="6">
+        <v>0.64951700000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B49" s="6">
+        <v>0.400841</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B50" s="6">
+        <v>0.63648000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B51" s="6">
+        <v>0.43061199999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B52" s="6">
+        <v>0.43094300000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B53" s="6">
+        <v>0.43072899999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B54" s="6">
+        <v>0.43047600000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B55" s="6">
+        <v>0.43175999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B56" s="6">
+        <v>0.431643</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B57" s="6">
+        <v>0.430923</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B58" s="6">
+        <v>0.42815999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B59" s="6">
+        <v>0.42755700000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B60" s="6">
+        <v>0.42847099999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B61" s="6">
+        <v>0.42781000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B62" s="6">
+        <v>0.42804300000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B63" s="6">
+        <v>0.42765399999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B64" s="6">
+        <v>0.42802400000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B65" s="6">
+        <v>0.42853000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B66" s="6">
+        <v>0.58832099999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B67" s="6">
+        <v>0.81814299999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B68" s="6">
+        <v>0.480989</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B69" s="6">
+        <v>0.437052</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B70" s="6">
+        <v>0.46188099999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B71" s="6">
+        <v>0.55732400000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B72" s="6">
+        <v>0.55833600000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B73" s="6">
+        <v>0.55726600000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B74" s="6">
+        <v>0.55642899999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B75" s="6">
+        <v>0.55683800000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B76" s="6">
+        <v>0.55559199999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B77" s="6">
+        <v>0.55559199999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B78" s="6">
+        <v>0.55773300000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B79" s="6">
+        <v>0.55685700000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B80" s="6">
+        <v>0.55543699999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B81" s="6">
+        <v>0.41656300000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B82" s="6">
+        <v>0.260488</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B83" s="6">
+        <v>0.75597400000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B84" s="6">
+        <v>0.45444800000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B85" s="6">
+        <v>0.59063699999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B86" s="6">
+        <v>0.52021700000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B87" s="6">
+        <v>5.0630000000000001E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B88" s="6">
+        <v>0.45859299999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B89" s="6">
+        <v>0.71404100000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B90" s="6">
+        <v>0.71265999999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B91" s="6">
+        <v>0.65712599999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B92" s="6">
+        <v>0.39362200000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B93" s="6">
+        <v>0.45398100000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B94" s="6">
+        <v>0.57308499999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B95" s="6">
+        <v>0.48857800000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B96" s="6">
+        <v>0.56650800000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B97" s="6">
+        <v>0.54257500000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="98" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B98" t="s">
+      <c r="B98" s="6">
+        <v>0.69718999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C98" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B99" t="s">
+      <c r="B99" s="6">
+        <v>0.70939099999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C99" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B100" t="s">
-        <v>352</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B100" s="6">
+        <v>0.50145899999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="101" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B101" t="s">
-        <v>354</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B101" s="6">
+        <v>0.59795299999999996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="5" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="102" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B102" t="s">
-        <v>356</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B102" s="6">
+        <v>0.575206</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="5" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="103" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B103" t="s">
-        <v>358</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B103" s="6">
+        <v>0.57676300000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="5" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="104" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B104" t="s">
-        <v>360</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B104" s="6">
+        <v>0.57633500000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="5" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="105" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B105" t="s">
-        <v>362</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B105" s="6">
+        <v>0.57205399999999995</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="5" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="106" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B106" t="s">
-        <v>364</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B106" s="6">
+        <v>0.57917600000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="5" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="107" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B107" t="s">
-        <v>366</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B107" s="6">
+        <v>0.57110099999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="5" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="108" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B108" t="s">
-        <v>368</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B108" s="6">
+        <v>0.57674300000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="5" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="109" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B109" t="s">
-        <v>370</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B109" s="6">
+        <v>0.573183</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="5" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="110" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B110" t="s">
-        <v>372</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B110" s="6">
+        <v>0.495641</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="111" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B111" t="s">
-        <v>374</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B111" s="6">
+        <v>0.57839700000000005</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="112" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B112" t="s">
-        <v>376</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B112" s="6">
+        <v>0.57843599999999995</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="5" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="113" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B113" t="s">
-        <v>378</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B113" s="6">
+        <v>0.57861099999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="5" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="114" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B114" t="s">
-        <v>380</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B114" s="6">
+        <v>0.57734700000000005</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="5" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="115" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B115" t="s">
-        <v>382</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B115" s="6">
+        <v>0.57769700000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="5" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="116" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B116" t="s">
-        <v>384</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B116" s="6">
+        <v>0.57773600000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="5" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="117" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B117" t="s">
-        <v>386</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B117" s="6">
+        <v>0.421427</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="118" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B118" t="s">
-        <v>388</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B118" s="6">
+        <v>0.42144700000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="5" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="119" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B119" t="s">
-        <v>390</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B119" s="6">
+        <v>0.41998799999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="5" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="120" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B120" t="s">
-        <v>392</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B120" s="6">
+        <v>0.42031800000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="5" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="121" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B121" t="s">
-        <v>394</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B121" s="6">
+        <v>0.42016300000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="5" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="122" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B122" t="s">
-        <v>396</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B122" s="6">
+        <v>0.42055199999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="5" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="123" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B123" t="s">
-        <v>398</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B123" s="6">
+        <v>0.42060999999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="5" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="124" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B124" t="s">
-        <v>400</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B124" s="6">
+        <v>0.42020200000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="5" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="125" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B125" t="s">
-        <v>402</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B125" s="6">
+        <v>0.41922900000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="5" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="126" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B126" t="s">
-        <v>404</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B126" s="6">
+        <v>0.42002600000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="5" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="127" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B127" t="s">
-        <v>406</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B127" s="6">
+        <v>0.41987099999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="128" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B128" t="s">
+      <c r="B128" s="6">
+        <v>0.71863299999999997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C128" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B129" t="s">
+      <c r="B129" s="6">
+        <v>0.71201700000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C129" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B130" t="s">
+      <c r="B130" s="6">
+        <v>0.68498999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="C130" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B131" t="s">
-        <v>413</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="B131" s="6">
+        <v>0.66722400000000004</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="5" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="132" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B132" t="s">
-        <v>415</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="B132" s="6">
+        <v>0.65981100000000004</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="5" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="133" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B133" t="s">
-        <v>417</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B133" s="6">
+        <v>0.65122999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="5" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="134" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B134" t="s">
-        <v>419</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="B134" s="6">
+        <v>0.65058800000000006</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="5" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="135" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B135" t="s">
-        <v>421</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="B135" s="6">
+        <v>0.65019800000000005</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="5" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="136" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B136" t="s">
-        <v>423</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B136" s="6">
+        <v>0.65414899999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="5" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="137" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B137" t="s">
-        <v>425</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="B137" s="6">
+        <v>0.65294200000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="5" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="138" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B138" t="s">
-        <v>427</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="B138" s="6">
+        <v>0.65004300000000004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="5" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="139" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B139" t="s">
-        <v>429</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="B139" s="6">
+        <v>0.59964600000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="5" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="140" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B140" t="s">
-        <v>431</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B140" s="6">
+        <v>0.61754699999999996</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="5" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="141" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B141" t="s">
-        <v>433</v>
-      </c>
-      <c r="C141" t="s">
+      <c r="B141" s="6">
+        <v>0.58625899999999997</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="5" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="142" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B142" t="s">
-        <v>435</v>
-      </c>
-      <c r="C142" t="s">
+      <c r="B142" s="6">
+        <v>0.63064299999999995</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="5" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="143" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B143" t="s">
-        <v>437</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="B143" s="6">
+        <v>0.66053099999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="5" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="144" spans="2:3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B144" t="s">
-        <v>439</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="B144" s="6">
+        <v>0.65477099999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="5" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B145" t="s">
-        <v>441</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="B145" s="6">
+        <v>0.64930299999999996</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="5" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B146" t="s">
-        <v>443</v>
-      </c>
-      <c r="C146" t="s">
+      <c r="B146" s="6">
+        <v>0.60441299999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="5" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B147" t="s">
-        <v>445</v>
-      </c>
-      <c r="C147" t="s">
+      <c r="B147" s="6">
+        <v>0.68195399999999995</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="5" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B148" t="s">
-        <v>447</v>
-      </c>
-      <c r="C148" t="s">
+      <c r="B148" s="6">
+        <v>0.67983300000000002</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="5" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B149" t="s">
-        <v>449</v>
-      </c>
-      <c r="C149" t="s">
+      <c r="B149" s="6">
+        <v>0.64276500000000003</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="5" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A150" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C150" s="2" t="s">
+      <c r="B150" s="6">
+        <v>0.67559199999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D150" s="1" t="str">
-        <f t="shared" ref="D150" si="5">"'" &amp; B150 &amp; "',"</f>
-        <v>'HighestEducationParents',</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B151" t="s">
-        <v>453</v>
-      </c>
-      <c r="C151" t="s">
+      <c r="B151" s="6">
+        <v>0.67201100000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="5" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B152" t="s">
-        <v>455</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="B152" s="6">
+        <v>0.66973499999999997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="5" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B153" t="s">
-        <v>457</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="B153" s="6">
+        <v>0.67349000000000003</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="5" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B154" t="s">
-        <v>459</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="B154" s="6">
+        <v>0.25083699999999998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="5" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B155" t="s">
-        <v>461</v>
-      </c>
-      <c r="C155" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B156" t="s">
-        <v>463</v>
-      </c>
-      <c r="C156" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B157" t="s">
-        <v>465</v>
-      </c>
-      <c r="C157" t="s">
-        <v>466</v>
+      <c r="B155" s="6">
+        <v>4.9930000000000002E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D157" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A157"/>
   <sheetViews>
@@ -3803,877 +5756,791 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1">
       <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1">
       <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1">
       <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1">
       <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1">
       <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1">
       <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1">
       <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1">
       <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1">
       <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1">
       <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1">
       <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1">
       <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1">
       <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1">
       <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1">
       <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1">
       <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1">
       <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1">
       <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1">
       <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1">
       <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1">
       <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1">
       <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1">
       <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1">
       <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1">
       <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1">
       <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1">
       <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1">
       <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1">
       <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1">
       <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1">
       <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1">
       <c r="A146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1">
       <c r="A147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1">
       <c r="A148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1">
       <c r="A149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1">
       <c r="A150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1">
       <c r="A151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1">
       <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1">
       <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1">
       <c r="A154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1">
       <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1">
       <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1">
       <c r="A157" t="s">
         <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990AAE54-9A3F-44DA-AFDB-AF3796E83DDE}">
-  <dimension ref="A1:W1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:W1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G1" t="s">
-        <v>475</v>
-      </c>
-      <c r="H1" t="s">
-        <v>476</v>
-      </c>
-      <c r="I1" t="s">
-        <v>477</v>
-      </c>
-      <c r="J1" t="s">
-        <v>478</v>
-      </c>
-      <c r="K1" t="s">
-        <v>479</v>
-      </c>
-      <c r="L1" t="s">
-        <v>480</v>
-      </c>
-      <c r="M1" t="s">
-        <v>481</v>
-      </c>
-      <c r="N1" t="s">
-        <v>482</v>
-      </c>
-      <c r="O1" t="s">
-        <v>483</v>
-      </c>
-      <c r="P1" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>485</v>
-      </c>
-      <c r="R1" t="s">
-        <v>486</v>
-      </c>
-      <c r="S1" t="s">
-        <v>487</v>
-      </c>
-      <c r="T1" t="s">
-        <v>488</v>
-      </c>
-      <c r="U1" t="s">
-        <v>489</v>
-      </c>
-      <c r="V1" t="s">
-        <v>490</v>
-      </c>
-      <c r="W1" t="s">
-        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/survey-results-schema.xlsx
+++ b/survey-results-schema.xlsx
@@ -2255,10 +2255,10 @@
   <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E115" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E83" sqref="E83"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
